--- a/resnet_size.xlsx
+++ b/resnet_size.xlsx
@@ -85,7 +85,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="175" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -118,7 +118,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +663,7 @@
         <v>9437184</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="E15:J15" si="1">F14*$B$2*F13</f>
+        <f t="shared" ref="F15:J15" si="1">F14*$B$2*F13</f>
         <v>7077888</v>
       </c>
       <c r="G15">
